--- a/01/solution/Podsumowanie.xlsx
+++ b/01/solution/Podsumowanie.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="60" windowWidth="20115" windowHeight="8010" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="60" windowWidth="20115" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="operacje" sheetId="1" r:id="rId1"/>
@@ -134,7 +134,7 @@
       <numFmt numFmtId="1" formatCode="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="164" formatCode="0.000"/>
+      <numFmt numFmtId="1" formatCode="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="1" formatCode="0"/>
@@ -161,7 +161,7 @@
       <numFmt numFmtId="1" formatCode="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
+      <numFmt numFmtId="164" formatCode="0.000"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="1" formatCode="0"/>
@@ -401,11 +401,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="44866304"/>
-        <c:axId val="44866880"/>
+        <c:axId val="529760832"/>
+        <c:axId val="529761408"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="44866304"/>
+        <c:axId val="529760832"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -415,12 +415,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="44866880"/>
+        <c:crossAx val="529761408"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="44866880"/>
+        <c:axId val="529761408"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -431,7 +431,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="44866304"/>
+        <c:crossAx val="529760832"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -586,11 +586,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="534194432"/>
-        <c:axId val="534196160"/>
+        <c:axId val="530560640"/>
+        <c:axId val="530561216"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="534194432"/>
+        <c:axId val="530560640"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -600,12 +600,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="534196160"/>
+        <c:crossAx val="530561216"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="534196160"/>
+        <c:axId val="530561216"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -616,7 +616,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="534194432"/>
+        <c:crossAx val="530560640"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -661,12 +661,9 @@
               <a:defRPr/>
             </a:pPr>
             <a:r>
-              <a:rPr lang="pl-PL" sz="1800" b="1" i="0" u="none" strike="noStrike" baseline="0">
-                <a:effectLst/>
-              </a:rPr>
-              <a:t>Użyta pamięć</a:t>
+              <a:rPr lang="pl-PL"/>
+              <a:t>Space</a:t>
             </a:r>
-            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:rich>
       </c:tx>
@@ -682,6 +679,92 @@
           <c:idx val="1"/>
           <c:order val="1"/>
           <c:tx>
+            <c:v>BFS</c:v>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>operacje!$C$16:$C$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>operacje!$E$16:$E$25</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7.75</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>40.958333333333336</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>86.925925925925924</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>192.07476635514018</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>418.24576271186442</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>881.02521008403357</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1895.2173913043478</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3710.3652173913042</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
             <c:v>DFS</c:v>
           </c:tx>
           <c:xVal>
@@ -758,92 +841,6 @@
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>229995.45217391304</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="1"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:v>BFS</c:v>
-          </c:tx>
-          <c:xVal>
-            <c:numRef>
-              <c:f>operacje!$C$16:$C$25</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>10</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>operacje!$E$16:$E$25</c:f>
-              <c:numCache>
-                <c:formatCode>0</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>2.5</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>7.75</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>19</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>40.958333333333336</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>86.925925925925924</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>192.07476635514018</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>418.24576271186442</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>881.02521008403357</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1895.2173913043478</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>3710.3652173913042</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -858,11 +855,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="534197888"/>
-        <c:axId val="534198464"/>
+        <c:axId val="529973248"/>
+        <c:axId val="529973824"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="534197888"/>
+        <c:axId val="529973248"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -872,12 +869,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="534198464"/>
+        <c:crossAx val="529973824"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="534198464"/>
+        <c:axId val="529973824"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -888,7 +885,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="534197888"/>
+        <c:crossAx val="529973248"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -954,6 +951,92 @@
           <c:idx val="1"/>
           <c:order val="1"/>
           <c:tx>
+            <c:v>BFS</c:v>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>operacje!$C$16:$C$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>operacje!$E$16:$E$25</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7.75</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>40.958333333333336</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>86.925925925925924</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>192.07476635514018</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>418.24576271186442</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>881.02521008403357</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1895.2173913043478</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3710.3652173913042</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
             <c:v>A* Odległość taksówkowa</c:v>
           </c:tx>
           <c:xVal>
@@ -1037,8 +1120,8 @@
           <c:smooth val="1"/>
         </c:ser>
         <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
+          <c:idx val="0"/>
+          <c:order val="0"/>
           <c:tx>
             <c:v>A* Odległość Hamminga</c:v>
           </c:tx>
@@ -1116,92 +1199,6 @@
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>2084.7043478260871</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="1"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:v>BFS</c:v>
-          </c:tx>
-          <c:xVal>
-            <c:numRef>
-              <c:f>operacje!$C$16:$C$25</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>10</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>operacje!$E$16:$E$25</c:f>
-              <c:numCache>
-                <c:formatCode>0</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>2.5</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>7.75</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>19</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>40.958333333333336</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>86.925925925925924</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>192.07476635514018</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>418.24576271186442</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>881.02521008403357</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1895.2173913043478</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>3710.3652173913042</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1216,11 +1213,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="671621120"/>
-        <c:axId val="671621696"/>
+        <c:axId val="529975552"/>
+        <c:axId val="529976128"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="671621120"/>
+        <c:axId val="529975552"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1230,12 +1227,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="671621696"/>
+        <c:crossAx val="529976128"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="671621696"/>
+        <c:axId val="529976128"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1246,7 +1243,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="671621120"/>
+        <c:crossAx val="529975552"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1298,7 +1295,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -1401,11 +1397,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="671624000"/>
-        <c:axId val="671624576"/>
+        <c:axId val="529978432"/>
+        <c:axId val="529979008"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="671624000"/>
+        <c:axId val="529978432"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1415,12 +1411,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="671624576"/>
+        <c:crossAx val="529979008"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="671624576"/>
+        <c:axId val="529979008"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1431,14 +1427,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="671624000"/>
+        <c:crossAx val="529978432"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -1589,11 +1584,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="671626304"/>
-        <c:axId val="671626880"/>
+        <c:axId val="529980736"/>
+        <c:axId val="530767872"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="671626304"/>
+        <c:axId val="529980736"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1603,12 +1598,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="671626880"/>
+        <c:crossAx val="530767872"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="671626880"/>
+        <c:axId val="530767872"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1619,7 +1614,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="671626304"/>
+        <c:crossAx val="529980736"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1777,11 +1772,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="65503232"/>
-        <c:axId val="65503808"/>
+        <c:axId val="530769600"/>
+        <c:axId val="530770176"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="65503232"/>
+        <c:axId val="530769600"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1791,12 +1786,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="65503808"/>
+        <c:crossAx val="530770176"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="65503808"/>
+        <c:axId val="530770176"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1807,7 +1802,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="65503232"/>
+        <c:crossAx val="530769600"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1964,11 +1959,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="65506112"/>
-        <c:axId val="65506688"/>
+        <c:axId val="530772480"/>
+        <c:axId val="530773056"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="65506112"/>
+        <c:axId val="530772480"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1978,12 +1973,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="65506688"/>
+        <c:crossAx val="530773056"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="65506688"/>
+        <c:axId val="530773056"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1994,7 +1989,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="65506112"/>
+        <c:crossAx val="530772480"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2150,11 +2145,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="65508416"/>
-        <c:axId val="65508992"/>
+        <c:axId val="530774784"/>
+        <c:axId val="530775360"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="65508416"/>
+        <c:axId val="530774784"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2164,12 +2159,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="65508992"/>
+        <c:crossAx val="530775360"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="65508992"/>
+        <c:axId val="530775360"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2180,7 +2175,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="65508416"/>
+        <c:crossAx val="530774784"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2247,42 +2242,42 @@
           <c:idx val="1"/>
           <c:order val="1"/>
           <c:tx>
-            <c:v>DFS</c:v>
+            <c:v>A* Odległość taksówkowa</c:v>
           </c:tx>
           <c:xVal>
             <c:numRef>
-              <c:f>operacje!$C$4:$C$13</c:f>
+              <c:f>operacje!$C$28:$C$147</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
+                <c:ptCount val="120"/>
+                <c:pt idx="1">
                   <c:v>1</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>2</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>3</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>4</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>5</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>6</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>7</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>8</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="9">
                   <c:v>9</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="10">
                   <c:v>10</c:v>
                 </c:pt>
               </c:numCache>
@@ -2290,39 +2285,39 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>operacje!$F$4:$F$13</c:f>
+              <c:f>operacje!$F$28:$F$147</c:f>
               <c:numCache>
-                <c:formatCode>0.000</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>4.9999999999999992E-3</c:v>
-                </c:pt>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="120"/>
                 <c:pt idx="1">
-                  <c:v>0.75800000000000001</c:v>
+                  <c:v>220.6275</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.4153999999999998</c:v>
+                  <c:v>380.22825</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.8198333333333332</c:v>
+                  <c:v>233.24879999999999</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.1274999999999999</c:v>
+                  <c:v>223.74620833333336</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2.5031869158878504</c:v>
+                  <c:v>209.72038888888886</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2.3910762711864413</c:v>
+                  <c:v>229.56578504672896</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2.6636806722689075</c:v>
+                  <c:v>309.40440677966103</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2.6116160714285712</c:v>
+                  <c:v>347.51452941176473</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2.8902521739130433</c:v>
+                  <c:v>430.51426086956525</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>622.37708695652168</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2333,42 +2328,42 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
-            <c:v>BFS</c:v>
+            <c:v>A* Odległość Hamminga</c:v>
           </c:tx>
           <c:xVal>
             <c:numRef>
-              <c:f>operacje!$C$16:$C$25</c:f>
+              <c:f>operacje!$C$150:$C$269</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
+                <c:ptCount val="120"/>
+                <c:pt idx="1">
                   <c:v>1</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>2</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>3</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>4</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>5</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>6</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>7</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>8</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="9">
                   <c:v>9</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="10">
                   <c:v>10</c:v>
                 </c:pt>
               </c:numCache>
@@ -2376,39 +2371,39 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>operacje!$F$16:$F$25</c:f>
+              <c:f>operacje!$F$150:$F$269</c:f>
               <c:numCache>
-                <c:formatCode>0.000</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>1E-3</c:v>
-                </c:pt>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="120"/>
                 <c:pt idx="1">
-                  <c:v>5.0000000000000001E-4</c:v>
+                  <c:v>1839.135</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.4000000000000002E-3</c:v>
+                  <c:v>762.53525000000002</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.666666666666667E-3</c:v>
+                  <c:v>473.68900000000002</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.9444444444444457E-3</c:v>
+                  <c:v>558.21404166666662</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2.0841121495327117E-3</c:v>
+                  <c:v>1569.7050925925926</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>4.694915254237291E-3</c:v>
+                  <c:v>1539.5748224299066</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>9.294117647058826E-3</c:v>
+                  <c:v>3376.289686440678</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2.0460869565217376E-2</c:v>
+                  <c:v>8782.6079327731095</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>4.1399999999999992E-2</c:v>
+                  <c:v>33082.735669565212</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>214685.3538173913</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2423,11 +2418,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="65510144"/>
-        <c:axId val="65510720"/>
+        <c:axId val="59647104"/>
+        <c:axId val="530773632"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="65510144"/>
+        <c:axId val="59647104"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2437,23 +2432,23 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="65510720"/>
+        <c:crossAx val="530773632"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="65510720"/>
+        <c:axId val="530773632"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
-        <c:numFmt formatCode="0.000" sourceLinked="1"/>
+        <c:numFmt formatCode="0" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="65510144"/>
+        <c:crossAx val="59647104"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2499,9 +2494,7 @@
               <a:defRPr/>
             </a:pPr>
             <a:r>
-              <a:rPr lang="pl-PL" sz="1800" b="1" i="0" u="none" strike="noStrike" baseline="0">
-                <a:effectLst/>
-              </a:rPr>
+              <a:rPr lang="pl-PL"/>
               <a:t>czas wykonania</a:t>
             </a:r>
             <a:endParaRPr lang="en-US"/>
@@ -2521,42 +2514,42 @@
           <c:idx val="1"/>
           <c:order val="1"/>
           <c:tx>
-            <c:v>A* Odległość taksówkowa</c:v>
+            <c:v>BFS</c:v>
           </c:tx>
           <c:xVal>
             <c:numRef>
-              <c:f>operacje!$C$28:$C$147</c:f>
+              <c:f>operacje!$C$16:$C$25</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="120"/>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
                 <c:pt idx="1">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>5</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>6</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>7</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>8</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="10">
                   <c:v>10</c:v>
                 </c:pt>
               </c:numCache>
@@ -2564,39 +2557,39 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>operacje!$F$28:$F$147</c:f>
+              <c:f>operacje!$F$16:$F$25</c:f>
               <c:numCache>
-                <c:formatCode>0</c:formatCode>
-                <c:ptCount val="120"/>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1E-3</c:v>
+                </c:pt>
                 <c:pt idx="1">
-                  <c:v>220.6275</c:v>
+                  <c:v>5.0000000000000001E-4</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>380.22825</c:v>
+                  <c:v>1.4000000000000002E-3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>233.24879999999999</c:v>
+                  <c:v>1.666666666666667E-3</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>223.74620833333336</c:v>
+                  <c:v>1.9444444444444457E-3</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>209.72038888888886</c:v>
+                  <c:v>2.0841121495327117E-3</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>229.56578504672896</c:v>
+                  <c:v>4.694915254237291E-3</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>309.40440677966103</c:v>
+                  <c:v>9.294117647058826E-3</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>347.51452941176473</c:v>
+                  <c:v>2.0460869565217376E-2</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>430.51426086956525</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>622.37708695652168</c:v>
+                  <c:v>4.1399999999999992E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2607,42 +2600,42 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
-            <c:v>A* Odległość Hamminga</c:v>
+            <c:v>DFS</c:v>
           </c:tx>
           <c:xVal>
             <c:numRef>
-              <c:f>operacje!$C$150:$C$269</c:f>
+              <c:f>operacje!$C$4:$C$13</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="120"/>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
                 <c:pt idx="1">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>5</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>6</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>7</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>8</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="10">
                   <c:v>10</c:v>
                 </c:pt>
               </c:numCache>
@@ -2650,39 +2643,39 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>operacje!$F$150:$F$269</c:f>
+              <c:f>operacje!$F$4:$F$13</c:f>
               <c:numCache>
-                <c:formatCode>0</c:formatCode>
-                <c:ptCount val="120"/>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>4.9999999999999992E-3</c:v>
+                </c:pt>
                 <c:pt idx="1">
-                  <c:v>1839.135</c:v>
+                  <c:v>0.75800000000000001</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>762.53525000000002</c:v>
+                  <c:v>1.4153999999999998</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>473.68900000000002</c:v>
+                  <c:v>1.8198333333333332</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>558.21404166666662</c:v>
+                  <c:v>2.1274999999999999</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1569.7050925925926</c:v>
+                  <c:v>2.5031869158878504</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1539.5748224299066</c:v>
+                  <c:v>2.3910762711864413</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3376.289686440678</c:v>
+                  <c:v>2.6636806722689075</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>8782.6079327731095</c:v>
+                  <c:v>2.6116160714285712</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>33082.735669565212</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>214685.3538173913</c:v>
+                  <c:v>2.8902521739130433</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2697,11 +2690,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="534209664"/>
-        <c:axId val="534210240"/>
+        <c:axId val="59648832"/>
+        <c:axId val="59649408"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="534209664"/>
+        <c:axId val="59648832"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2711,23 +2704,23 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="534210240"/>
+        <c:crossAx val="59649408"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="534210240"/>
+        <c:axId val="59649408"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
-        <c:numFmt formatCode="0" sourceLinked="1"/>
+        <c:numFmt formatCode="0.000" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="534209664"/>
+        <c:crossAx val="59648832"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3055,11 +3048,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="48006272"/>
-        <c:axId val="48006848"/>
+        <c:axId val="529763136"/>
+        <c:axId val="529763712"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="48006272"/>
+        <c:axId val="529763136"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3069,12 +3062,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="48006848"/>
+        <c:crossAx val="529763712"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="48006848"/>
+        <c:axId val="529763712"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3085,7 +3078,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="48006272"/>
+        <c:crossAx val="529763136"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3243,11 +3236,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="517109952"/>
-        <c:axId val="517111104"/>
+        <c:axId val="529766016"/>
+        <c:axId val="529766592"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="517109952"/>
+        <c:axId val="529766016"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3257,12 +3250,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="517111104"/>
+        <c:crossAx val="529766592"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="517111104"/>
+        <c:axId val="529766592"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3273,7 +3266,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="517109952"/>
+        <c:crossAx val="529766016"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3431,11 +3424,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="517124608"/>
-        <c:axId val="517125184"/>
+        <c:axId val="530366464"/>
+        <c:axId val="530367040"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="517124608"/>
+        <c:axId val="530366464"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3445,12 +3438,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="517125184"/>
+        <c:crossAx val="530367040"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="517125184"/>
+        <c:axId val="530367040"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3461,7 +3454,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="517124608"/>
+        <c:crossAx val="530366464"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3619,11 +3612,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="517127488"/>
-        <c:axId val="523617408"/>
+        <c:axId val="530368768"/>
+        <c:axId val="530369344"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="517127488"/>
+        <c:axId val="530368768"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3633,12 +3626,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="523617408"/>
+        <c:crossAx val="530369344"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="523617408"/>
+        <c:axId val="530369344"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3649,7 +3642,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="517127488"/>
+        <c:crossAx val="530368768"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3803,11 +3796,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="523619712"/>
-        <c:axId val="523620288"/>
+        <c:axId val="530371072"/>
+        <c:axId val="530371648"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="523619712"/>
+        <c:axId val="530371072"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3817,12 +3810,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="523620288"/>
+        <c:crossAx val="530371648"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="523620288"/>
+        <c:axId val="530371648"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3833,7 +3826,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="523619712"/>
+        <c:crossAx val="530371072"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3989,11 +3982,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="523622592"/>
-        <c:axId val="530334848"/>
+        <c:axId val="530373376"/>
+        <c:axId val="530373952"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="523622592"/>
+        <c:axId val="530373376"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4003,12 +3996,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="530334848"/>
+        <c:crossAx val="530373952"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="530334848"/>
+        <c:axId val="530373952"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4019,7 +4012,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="523622592"/>
+        <c:crossAx val="530373376"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4175,11 +4168,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="530337728"/>
-        <c:axId val="530338880"/>
+        <c:axId val="530556032"/>
+        <c:axId val="530556608"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="530337728"/>
+        <c:axId val="530556032"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4189,12 +4182,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="530338880"/>
+        <c:crossAx val="530556608"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="530338880"/>
+        <c:axId val="530556608"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4205,7 +4198,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="530337728"/>
+        <c:crossAx val="530556032"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4361,11 +4354,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="533918784"/>
-        <c:axId val="534192704"/>
+        <c:axId val="530558336"/>
+        <c:axId val="530558912"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="533918784"/>
+        <c:axId val="530558336"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4375,12 +4368,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="534192704"/>
+        <c:crossAx val="530558912"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="534192704"/>
+        <c:axId val="530558912"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4391,7 +4384,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="533918784"/>
+        <c:crossAx val="530558336"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4731,20 +4724,20 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>390525</xdr:colOff>
       <xdr:row>16</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="7" name="Chart 6"/>
+        <xdr:cNvPr id="10" name="Chart 9"/>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks/>
         </xdr:cNvGraphicFramePr>
@@ -4763,20 +4756,20 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>333375</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>476250</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="8" name="Chart 7"/>
+        <xdr:cNvPr id="11" name="Chart 10"/>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks/>
         </xdr:cNvGraphicFramePr>
@@ -4962,18 +4955,18 @@
     <xdr:from>
       <xdr:col>13</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>2</xdr:row>
+      <xdr:row>19</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>20</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>16</xdr:row>
+      <xdr:row>33</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="7" name="Chart 6"/>
+        <xdr:cNvPr id="9" name="Chart 8"/>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks/>
         </xdr:cNvGraphicFramePr>
@@ -4992,20 +4985,20 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>361950</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>20</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="9" name="Chart 8"/>
+        <xdr:cNvPr id="10" name="Chart 9"/>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks/>
         </xdr:cNvGraphicFramePr>
@@ -5118,9 +5111,9 @@
   <autoFilter ref="C15:F25"/>
   <tableColumns count="4">
     <tableColumn id="1" uniqueName="1" name="poziom trudności" queryTableFieldId="1"/>
-    <tableColumn id="2" uniqueName="2" name="liczba operacji" queryTableFieldId="2" dataDxfId="5"/>
-    <tableColumn id="3" uniqueName="3" name="użyta pamięć" queryTableFieldId="3" dataDxfId="4"/>
-    <tableColumn id="4" uniqueName="4" name="czas" queryTableFieldId="4" dataDxfId="3"/>
+    <tableColumn id="2" uniqueName="2" name="liczba operacji" queryTableFieldId="2" dataDxfId="14"/>
+    <tableColumn id="3" uniqueName="3" name="użyta pamięć" queryTableFieldId="3" dataDxfId="13"/>
+    <tableColumn id="4" uniqueName="4" name="czas" queryTableFieldId="4" dataDxfId="12"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -5129,6 +5122,20 @@
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table_A1_" displayName="Table_A1_" ref="C27:G147" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="C27:G147"/>
+  <tableColumns count="5">
+    <tableColumn id="1" uniqueName="1" name="F1" queryTableFieldId="1"/>
+    <tableColumn id="2" uniqueName="2" name="F2" queryTableFieldId="2" dataDxfId="11"/>
+    <tableColumn id="3" uniqueName="3" name="F3" queryTableFieldId="3" dataDxfId="10"/>
+    <tableColumn id="4" uniqueName="4" name="F4" queryTableFieldId="4" dataDxfId="9"/>
+    <tableColumn id="5" uniqueName="5" name="F5" queryTableFieldId="5"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Table_A2_Podsumowanie" displayName="Table_A2_Podsumowanie" ref="C149:G269" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="C149:G269"/>
   <tableColumns count="5">
     <tableColumn id="1" uniqueName="1" name="F1" queryTableFieldId="1"/>
     <tableColumn id="2" uniqueName="2" name="F2" queryTableFieldId="2" dataDxfId="8"/>
@@ -5140,28 +5147,14 @@
 </table>
 </file>
 
-<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Table_A2_Podsumowanie" displayName="Table_A2_Podsumowanie" ref="C149:G269" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="C149:G269"/>
-  <tableColumns count="5">
-    <tableColumn id="1" uniqueName="1" name="F1" queryTableFieldId="1"/>
-    <tableColumn id="2" uniqueName="2" name="F2" queryTableFieldId="2" dataDxfId="11"/>
-    <tableColumn id="3" uniqueName="3" name="F3" queryTableFieldId="3" dataDxfId="10"/>
-    <tableColumn id="4" uniqueName="4" name="F4" queryTableFieldId="4" dataDxfId="9"/>
-    <tableColumn id="5" uniqueName="5" name="F5" queryTableFieldId="5"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="Table_A3_Podsumowanie" displayName="Table_A3_Podsumowanie" ref="C271:G391" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="C271:G391"/>
   <tableColumns count="5">
     <tableColumn id="1" uniqueName="1" name="F1" queryTableFieldId="1"/>
-    <tableColumn id="2" uniqueName="2" name="F2" queryTableFieldId="2" dataDxfId="14"/>
-    <tableColumn id="3" uniqueName="3" name="F3" queryTableFieldId="3" dataDxfId="13"/>
-    <tableColumn id="4" uniqueName="4" name="F4" queryTableFieldId="4" dataDxfId="12"/>
+    <tableColumn id="2" uniqueName="2" name="F2" queryTableFieldId="2" dataDxfId="5"/>
+    <tableColumn id="3" uniqueName="3" name="F3" queryTableFieldId="3" dataDxfId="4"/>
+    <tableColumn id="4" uniqueName="4" name="F4" queryTableFieldId="4" dataDxfId="3"/>
     <tableColumn id="5" uniqueName="5" name="F5" queryTableFieldId="5"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -5457,8 +5450,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C3:G391"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F28" sqref="F28:F37"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8011,8 +8004,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="Q54" sqref="Q54"/>
+    <sheetView topLeftCell="D17" workbookViewId="0">
+      <selection activeCell="Q22" sqref="Q22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8026,8 +8019,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="N20" sqref="N20"/>
+    <sheetView topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="R7" sqref="R7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
